--- a/test_ホワイトボード/已完成/test_ホワイトボート_車室詳細.xlsx
+++ b/test_ホワイトボード/已完成/test_ホワイトボート_車室詳細.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" tabRatio="850" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17228" uniqueCount="1032">
   <si>
     <t>SQL</t>
   </si>
@@ -1751,7 +1751,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>勤務先備考</t>
     </r>
@@ -3148,13 +3148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="41">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3181,26 +3175,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3213,7 +3207,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3226,20 +3220,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3259,27 +3250,27 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3292,160 +3283,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3460,19 +3312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,7 +3336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3508,7 +3360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3526,186 +3378,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3741,254 +3425,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4013,7 +3455,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4031,7 +3473,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4093,61 +3535,62 @@
     <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="標準 26" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4159,8 +3602,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF99"/>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4452,16 +3895,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:IE217"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="M123" sqref="M123"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4478,7 +3921,7 @@
     <col min="42" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -4486,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
@@ -4494,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
@@ -4507,7 +3950,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -4516,7 +3959,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:7" customFormat="1" ht="14.25">
       <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
@@ -4524,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +3975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="38" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
       <c r="A9" s="38" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +3991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:7" customFormat="1" ht="14.25">
       <c r="A10" s="38" t="s">
         <v>0</v>
       </c>
@@ -4556,11 +3999,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:2">
+    <row r="11" spans="1:7" customFormat="1" ht="14.25">
       <c r="A11" s="38"/>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="38" t="s">
         <v>0</v>
       </c>
@@ -4568,7 +4011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="38" t="s">
         <v>0</v>
       </c>
@@ -4576,7 +4019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:2">
+    <row r="14" spans="1:7" customFormat="1" ht="14.25">
       <c r="A14" s="38" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +4027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="38" t="s">
         <v>0</v>
       </c>
@@ -4592,7 +4035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="38" t="s">
         <v>0</v>
       </c>
@@ -4600,7 +4043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" customFormat="1" ht="14.25">
       <c r="A17" s="38" t="s">
         <v>0</v>
       </c>
@@ -4608,8 +4051,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="13.5"/>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" customFormat="1" ht="13.5"/>
+    <row r="19" spans="1:2" customFormat="1" ht="14.25">
       <c r="A19" s="38" t="s">
         <v>0</v>
       </c>
@@ -4617,7 +4060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" customFormat="1" ht="14.25">
       <c r="A20" s="38" t="s">
         <v>0</v>
       </c>
@@ -4625,7 +4068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:2">
+    <row r="21" spans="1:2" customFormat="1" ht="14.25">
       <c r="A21" s="38" t="s">
         <v>0</v>
       </c>
@@ -4633,11 +4076,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2" customFormat="1" ht="14.25">
       <c r="A22" s="38"/>
       <c r="B22" s="17"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" customFormat="1" ht="14.25">
       <c r="A23" s="38" t="s">
         <v>0</v>
       </c>
@@ -4645,7 +4088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" customFormat="1" ht="14.25">
       <c r="A24" s="38" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:2">
+    <row r="25" spans="1:2" customFormat="1" ht="14.25">
       <c r="A25" s="38" t="s">
         <v>0</v>
       </c>
@@ -4661,7 +4104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" customFormat="1" ht="14.25">
       <c r="A26" s="38" t="s">
         <v>0</v>
       </c>
@@ -4669,11 +4112,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" customFormat="1" ht="14.25">
       <c r="A27" s="38"/>
       <c r="B27" s="17"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" customFormat="1" ht="14.25">
       <c r="A28" s="38" t="s">
         <v>0</v>
       </c>
@@ -4681,7 +4124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" customFormat="1" ht="14.25">
       <c r="A29" s="38" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +4132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:2">
+    <row r="30" spans="1:2" customFormat="1" ht="14.25">
       <c r="A30" s="38" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" customFormat="1" ht="14.25">
       <c r="A31" s="38" t="s">
         <v>0</v>
       </c>
@@ -4705,7 +4148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" customFormat="1" ht="14.25">
       <c r="A32" s="38" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" customFormat="1" ht="14.25">
       <c r="A33" s="38" t="s">
         <v>0</v>
       </c>
@@ -4721,7 +4164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" customFormat="1" ht="14.25">
       <c r="A34" s="38" t="s">
         <v>0</v>
       </c>
@@ -4729,7 +4172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" customFormat="1" ht="14.25">
       <c r="A35" s="38" t="s">
         <v>0</v>
       </c>
@@ -4737,7 +4180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" customFormat="1" ht="14.25">
       <c r="A36" s="38" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +4188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" customFormat="1" ht="14.25">
       <c r="A37" s="38" t="s">
         <v>0</v>
       </c>
@@ -4753,7 +4196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" customFormat="1" ht="14.25">
       <c r="A38" s="38" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +4204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" customFormat="1" ht="14.25">
       <c r="A39" s="38" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +4212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" customFormat="1" ht="14.25">
       <c r="A40" s="38" t="s">
         <v>0</v>
       </c>
@@ -4777,7 +4220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" customFormat="1" ht="14.25">
       <c r="A41" s="38" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +4228,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" customFormat="1" ht="14.25">
       <c r="A42" s="38" t="s">
         <v>0</v>
       </c>
@@ -4793,7 +4236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" customFormat="1" ht="14.25">
       <c r="A43" s="38" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" customFormat="1" ht="14.25">
       <c r="A44" s="38" t="s">
         <v>0</v>
       </c>
@@ -4809,7 +4252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" customFormat="1" ht="14.25">
       <c r="A45" s="38" t="s">
         <v>0</v>
       </c>
@@ -4817,7 +4260,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" customFormat="1" ht="14.25">
       <c r="A46" s="38" t="s">
         <v>0</v>
       </c>
@@ -4825,7 +4268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" customFormat="1" ht="14.25">
       <c r="A47" s="38" t="s">
         <v>0</v>
       </c>
@@ -4833,7 +4276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" customFormat="1" ht="14.25">
       <c r="A48" s="38" t="s">
         <v>0</v>
       </c>
@@ -4841,7 +4284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:8" customFormat="1" ht="14.25">
       <c r="A49" s="38" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:8" customFormat="1" ht="14.25">
       <c r="A50" s="38" t="s">
         <v>0</v>
       </c>
@@ -4857,7 +4300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:8" customFormat="1" ht="14.25">
       <c r="A51" s="38" t="s">
         <v>0</v>
       </c>
@@ -4865,7 +4308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:8" customFormat="1" ht="14.25">
       <c r="A52" s="38" t="s">
         <v>0</v>
       </c>
@@ -4873,7 +4316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:8" customFormat="1" ht="14.25">
       <c r="A53" s="38" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +4324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:8" customFormat="1" ht="14.25">
       <c r="A54" s="38" t="s">
         <v>0</v>
       </c>
@@ -4889,13 +4332,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="13.5"/>
-    <row r="56" customFormat="1" ht="13.5"/>
-    <row r="57" customFormat="1" ht="13.5" spans="1:2">
+    <row r="55" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="56" spans="1:8" customFormat="1" ht="13.5"/>
+    <row r="57" spans="1:8" customFormat="1" ht="13.5">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:8">
+    <row r="58" spans="1:8" customFormat="1" ht="14.25">
       <c r="A58" s="38" t="s">
         <v>0</v>
       </c>
@@ -4908,7 +4351,7 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:8">
+    <row r="59" spans="1:8" customFormat="1" ht="14.25">
       <c r="A59" s="38" t="s">
         <v>0</v>
       </c>
@@ -4922,7 +4365,7 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:8">
+    <row r="60" spans="1:8" customFormat="1" ht="14.25">
       <c r="A60" s="38" t="s">
         <v>0</v>
       </c>
@@ -4936,7 +4379,7 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:8">
+    <row r="61" spans="1:8" customFormat="1" ht="14.25">
       <c r="A61" s="38" t="s">
         <v>0</v>
       </c>
@@ -4950,7 +4393,7 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:8">
+    <row r="62" spans="1:8" customFormat="1" ht="14.25">
       <c r="A62" s="38"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -4959,10 +4402,8 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A63" s="38" t="s">
-        <v>0</v>
-      </c>
+    <row r="63" spans="1:8" customFormat="1" ht="14.25">
+      <c r="A63" s="38"/>
       <c r="B63" t="s">
         <v>51</v>
       </c>
@@ -4973,7 +4414,7 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:8">
+    <row r="64" spans="1:8" customFormat="1" ht="14.25">
       <c r="A64" s="38" t="s">
         <v>0</v>
       </c>
@@ -4987,7 +4428,7 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" customFormat="1" ht="14.25" spans="1:8">
+    <row r="65" spans="1:19" customFormat="1" ht="14.25">
       <c r="A65" s="38" t="s">
         <v>0</v>
       </c>
@@ -5001,7 +4442,7 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
+    <row r="66" spans="1:19" customFormat="1" ht="14.25">
       <c r="A66" s="38" t="s">
         <v>0</v>
       </c>
@@ -5015,7 +4456,7 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" customFormat="1" ht="14.25">
       <c r="A67" s="38" t="s">
         <v>0</v>
       </c>
@@ -5029,7 +4470,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:2">
+    <row r="68" spans="1:19" customFormat="1" ht="14.25">
       <c r="A68" s="38" t="s">
         <v>0</v>
       </c>
@@ -5037,7 +4478,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" s="9" customFormat="1" spans="1:7">
+    <row r="69" spans="1:19">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -5046,7 +4487,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" s="9" customFormat="1" spans="1:7">
+    <row r="70" spans="1:19">
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -5055,7 +4496,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" customFormat="1" ht="13.5" spans="1:7">
+    <row r="71" spans="1:19" customFormat="1" ht="13.5">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -5064,7 +4505,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" s="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="72" spans="1:19" s="17" customFormat="1" ht="14.25">
       <c r="A72" s="28" t="s">
         <v>57</v>
       </c>
@@ -5072,7 +4513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" s="17" customFormat="1" spans="2:19">
+    <row r="73" spans="1:19" s="17" customFormat="1">
       <c r="B73" s="29" t="s">
         <v>59</v>
       </c>
@@ -5128,7 +4569,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" s="17" customFormat="1" spans="2:19">
+    <row r="74" spans="1:19" s="17" customFormat="1">
       <c r="B74" s="31" t="s">
         <v>61</v>
       </c>
@@ -5184,7 +4625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" s="17" customFormat="1" spans="2:19">
+    <row r="75" spans="1:19" s="17" customFormat="1">
       <c r="B75" s="33" t="s">
         <v>79</v>
       </c>
@@ -5240,7 +4681,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" s="17" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19" s="17" customFormat="1">
       <c r="B76" s="33" t="s">
         <v>85</v>
       </c>
@@ -5296,7 +4737,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" s="17" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19" s="17" customFormat="1">
       <c r="B77" s="33" t="s">
         <v>88</v>
       </c>
@@ -5352,7 +4793,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" s="17" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19" s="17" customFormat="1">
       <c r="B78" s="33" t="s">
         <v>91</v>
       </c>
@@ -5408,7 +4849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" s="17" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19" s="17" customFormat="1">
       <c r="B79" s="33" t="s">
         <v>95</v>
       </c>
@@ -5464,7 +4905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" s="17" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19" s="17" customFormat="1">
       <c r="B80" s="33" t="s">
         <v>98</v>
       </c>
@@ -5520,7 +4961,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" s="17" customFormat="1" spans="2:19">
+    <row r="81" spans="1:239" s="17" customFormat="1">
       <c r="B81" s="33" t="s">
         <v>100</v>
       </c>
@@ -5576,8 +5017,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" s="17" customFormat="1"/>
-    <row r="83" s="9" customFormat="1" spans="1:7">
+    <row r="82" spans="1:239" s="17" customFormat="1"/>
+    <row r="83" spans="1:239">
       <c r="A83" s="17"/>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -5586,7 +5027,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
     </row>
-    <row r="84" customFormat="1" ht="13.5" spans="1:7">
+    <row r="84" spans="1:239" customFormat="1" ht="13.5">
       <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -5595,7 +5036,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" s="16" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="85" spans="1:239" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A85" s="18" t="s">
         <v>57</v>
       </c>
@@ -5603,7 +5044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" s="16" customFormat="1" ht="13.5" spans="2:71">
+    <row r="86" spans="1:239" s="16" customFormat="1" ht="13.5">
       <c r="B86" s="19" t="s">
         <v>104</v>
       </c>
@@ -5677,7 +5118,7 @@
       <c r="BR86" s="20"/>
       <c r="BS86" s="20"/>
     </row>
-    <row r="87" s="16" customFormat="1" ht="13.5" spans="1:74">
+    <row r="87" spans="1:239" s="16" customFormat="1" ht="13.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22" t="s">
         <v>62</v>
@@ -5899,7 +5340,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" s="16" customFormat="1" ht="13.5" spans="1:239">
+    <row r="88" spans="1:239" s="16" customFormat="1" ht="13.5">
       <c r="A88" s="25"/>
       <c r="B88" s="26" t="s">
         <v>80</v>
@@ -6286,7 +5727,7 @@
       <c r="ID88" s="21"/>
       <c r="IE88" s="21"/>
     </row>
-    <row r="89" customFormat="1" ht="13.5" spans="1:239">
+    <row r="89" spans="1:239" customFormat="1" ht="13.5">
       <c r="A89" s="21"/>
       <c r="B89" s="26" t="s">
         <v>92</v>
@@ -6673,7 +6114,7 @@
       <c r="ID89" s="21"/>
       <c r="IE89" s="21"/>
     </row>
-    <row r="90" customFormat="1" ht="13.5" spans="1:239">
+    <row r="90" spans="1:239" customFormat="1" ht="13.5">
       <c r="A90" s="27"/>
       <c r="B90" s="26" t="s">
         <v>92</v>
@@ -7060,7 +6501,7 @@
       <c r="ID90" s="21"/>
       <c r="IE90" s="21"/>
     </row>
-    <row r="91" customFormat="1" ht="13.5" spans="1:239">
+    <row r="91" spans="1:239" customFormat="1" ht="13.5">
       <c r="A91" s="27"/>
       <c r="B91" s="26" t="s">
         <v>80</v>
@@ -7447,7 +6888,7 @@
       <c r="ID91" s="21"/>
       <c r="IE91" s="21"/>
     </row>
-    <row r="92" customFormat="1" ht="13.5" spans="1:239">
+    <row r="92" spans="1:239" customFormat="1" ht="13.5">
       <c r="A92" s="27"/>
       <c r="B92" s="26" t="s">
         <v>80</v>
@@ -7834,7 +7275,7 @@
       <c r="ID92" s="21"/>
       <c r="IE92" s="21"/>
     </row>
-    <row r="93" customFormat="1" ht="13.5" spans="1:239">
+    <row r="93" spans="1:239" customFormat="1" ht="13.5">
       <c r="A93" s="27"/>
       <c r="B93" s="26" t="s">
         <v>92</v>
@@ -8221,7 +7662,7 @@
       <c r="ID93" s="21"/>
       <c r="IE93" s="21"/>
     </row>
-    <row r="94" customFormat="1" ht="13.5" spans="1:239">
+    <row r="94" spans="1:239" customFormat="1" ht="13.5">
       <c r="A94" s="27"/>
       <c r="B94" s="26" t="s">
         <v>92</v>
@@ -8608,7 +8049,7 @@
       <c r="ID94" s="21"/>
       <c r="IE94" s="21"/>
     </row>
-    <row r="95" customFormat="1" ht="13.5" spans="1:239">
+    <row r="95" spans="1:239" customFormat="1" ht="13.5">
       <c r="A95" s="27"/>
       <c r="B95" s="26" t="s">
         <v>80</v>
@@ -8995,7 +8436,7 @@
       <c r="ID95" s="21"/>
       <c r="IE95" s="21"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:7">
+    <row r="96" spans="1:239" customFormat="1" ht="13.5">
       <c r="A96" s="17"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -9004,7 +8445,7 @@
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
     </row>
-    <row r="100" ht="14.25" spans="1:10">
+    <row r="100" spans="1:10" ht="14.25">
       <c r="A100" s="28" t="s">
         <v>57</v>
       </c>
@@ -9020,7 +8461,7 @@
       <c r="I100" s="17"/>
       <c r="J100" s="17"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="1:10">
       <c r="B101" s="29" t="s">
         <v>224</v>
       </c>
@@ -9289,7 +8730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" s="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="112" spans="1:10" s="17" customFormat="1" ht="14.25">
       <c r="A112" s="28" t="s">
         <v>57</v>
       </c>
@@ -9297,7 +8738,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" s="17" customFormat="1" spans="2:13">
+    <row r="113" spans="1:35" s="17" customFormat="1">
       <c r="B113" s="29" t="s">
         <v>232</v>
       </c>
@@ -9335,7 +8776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="114" s="17" customFormat="1" spans="2:13">
+    <row r="114" spans="1:35" s="17" customFormat="1">
       <c r="B114" s="31" t="s">
         <v>61</v>
       </c>
@@ -9373,7 +8814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" s="17" customFormat="1" spans="2:13">
+    <row r="115" spans="1:35" s="17" customFormat="1">
       <c r="B115" s="33" t="s">
         <v>79</v>
       </c>
@@ -9411,7 +8852,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" s="17" customFormat="1" spans="2:13">
+    <row r="116" spans="1:35" s="17" customFormat="1">
       <c r="B116" s="33" t="s">
         <v>85</v>
       </c>
@@ -9449,7 +8890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" s="17" customFormat="1" spans="2:13">
+    <row r="117" spans="1:35" s="17" customFormat="1">
       <c r="B117" s="33" t="s">
         <v>88</v>
       </c>
@@ -9487,8 +8928,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" s="17" customFormat="1"/>
-    <row r="121" ht="13.5" spans="2:35">
+    <row r="118" spans="1:35" s="17" customFormat="1"/>
+    <row r="121" spans="1:35" ht="13.5">
       <c r="B121" s="27"/>
       <c r="C121" s="21"/>
       <c r="D121" s="21"/>
@@ -9524,7 +8965,7 @@
       <c r="AH121" s="21"/>
       <c r="AI121" s="21"/>
     </row>
-    <row r="122" ht="13.5" spans="2:35">
+    <row r="122" spans="1:35" ht="13.5">
       <c r="B122" s="35"/>
       <c r="C122" s="21"/>
       <c r="D122" s="21"/>
@@ -9560,7 +9001,7 @@
       <c r="AH122" s="21"/>
       <c r="AI122" s="21"/>
     </row>
-    <row r="123" ht="14.25" spans="1:35">
+    <row r="123" spans="1:35" ht="14.25">
       <c r="A123" s="28" t="s">
         <v>57</v>
       </c>
@@ -9601,7 +9042,7 @@
       <c r="AH123" s="21"/>
       <c r="AI123" s="21"/>
     </row>
-    <row r="124" ht="13.5" spans="2:35">
+    <row r="124" spans="1:35" ht="13.5">
       <c r="B124" s="29" t="s">
         <v>247</v>
       </c>
@@ -9639,7 +9080,7 @@
       <c r="AH124" s="21"/>
       <c r="AI124" s="21"/>
     </row>
-    <row r="125" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="125" spans="1:35" ht="13.5">
       <c r="B125" s="32" t="s">
         <v>62</v>
       </c>
@@ -9689,7 +9130,7 @@
       <c r="AH125" s="21"/>
       <c r="AI125" s="21"/>
     </row>
-    <row r="126" s="9" customFormat="1" ht="13.5" spans="2:35">
+    <row r="126" spans="1:35" ht="13.5">
       <c r="B126" s="33" t="s">
         <v>80</v>
       </c>
@@ -9739,7 +9180,7 @@
       <c r="AH126" s="21"/>
       <c r="AI126" s="21"/>
     </row>
-    <row r="127" ht="13.5" spans="2:35">
+    <row r="127" spans="1:35" ht="13.5">
       <c r="B127" s="27"/>
       <c r="C127" s="21"/>
       <c r="D127" s="21"/>
@@ -9775,7 +9216,7 @@
       <c r="AH127" s="21"/>
       <c r="AI127" s="21"/>
     </row>
-    <row r="128" ht="13.5" spans="2:35">
+    <row r="128" spans="1:35" ht="13.5">
       <c r="B128" s="35"/>
       <c r="C128" s="21"/>
       <c r="D128" s="21"/>
@@ -9811,7 +9252,7 @@
       <c r="AH128" s="21"/>
       <c r="AI128" s="21"/>
     </row>
-    <row r="129" ht="13.5" spans="2:35">
+    <row r="129" spans="1:36" ht="13.5">
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
       <c r="D129" s="21"/>
@@ -9847,7 +9288,7 @@
       <c r="AH129" s="21"/>
       <c r="AI129" s="21"/>
     </row>
-    <row r="131" ht="14.25" spans="1:2">
+    <row r="131" spans="1:36" ht="14.25">
       <c r="A131" s="36" t="s">
         <v>57</v>
       </c>
@@ -9855,13 +9296,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:36">
       <c r="A132" s="37"/>
       <c r="B132" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="133" s="9" customFormat="1" spans="2:36">
+    <row r="133" spans="1:36">
       <c r="B133" s="31" t="s">
         <v>61</v>
       </c>
@@ -9966,7 +9407,7 @@
       </c>
       <c r="AJ133" s="32"/>
     </row>
-    <row r="134" s="9" customFormat="1" spans="2:35">
+    <row r="134" spans="1:36">
       <c r="B134" s="33">
         <v>1</v>
       </c>
@@ -10070,7 +9511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="135" s="9" customFormat="1" spans="2:35">
+    <row r="135" spans="1:36">
       <c r="B135" s="33">
         <v>2</v>
       </c>
@@ -10174,7 +9615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="136" s="9" customFormat="1" spans="2:35">
+    <row r="136" spans="1:36">
       <c r="B136" s="33">
         <v>3</v>
       </c>
@@ -10278,7 +9719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" s="9" customFormat="1" spans="2:35">
+    <row r="137" spans="1:36">
       <c r="B137" s="33">
         <v>4</v>
       </c>
@@ -10382,7 +9823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" s="9" customFormat="1" spans="2:35">
+    <row r="138" spans="1:36">
       <c r="B138" s="33">
         <v>5</v>
       </c>
@@ -10486,7 +9927,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="139" s="9" customFormat="1" spans="2:35">
+    <row r="139" spans="1:36">
       <c r="B139" s="33">
         <v>6</v>
       </c>
@@ -10590,7 +10031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" s="9" customFormat="1" spans="2:35">
+    <row r="140" spans="1:36">
       <c r="B140" s="33">
         <v>7</v>
       </c>
@@ -10694,7 +10135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="2:35">
+    <row r="141" spans="1:36">
       <c r="B141" s="33">
         <v>8</v>
       </c>
@@ -10798,7 +10239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="2:35">
+    <row r="142" spans="1:36">
       <c r="B142" s="33">
         <v>9</v>
       </c>
@@ -10902,7 +10343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="143" s="9" customFormat="1" spans="2:35">
+    <row r="143" spans="1:36">
       <c r="B143" s="33">
         <v>10</v>
       </c>
@@ -11006,7 +10447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="144" s="9" customFormat="1" spans="2:35">
+    <row r="144" spans="1:36">
       <c r="B144" s="33">
         <v>11</v>
       </c>
@@ -11110,7 +10551,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" s="9" customFormat="1" spans="2:35">
+    <row r="145" spans="1:239">
       <c r="B145" s="33">
         <v>12</v>
       </c>
@@ -11214,7 +10655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="146" s="9" customFormat="1" spans="2:35">
+    <row r="146" spans="1:239">
       <c r="B146" s="33">
         <v>13</v>
       </c>
@@ -11318,7 +10759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" s="9" customFormat="1" spans="2:35">
+    <row r="147" spans="1:239">
       <c r="B147" s="33">
         <v>14</v>
       </c>
@@ -11422,7 +10863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" s="9" customFormat="1" spans="2:35">
+    <row r="148" spans="1:239">
       <c r="B148" s="33">
         <v>15</v>
       </c>
@@ -11526,7 +10967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="2:35">
+    <row r="149" spans="1:239">
       <c r="B149" s="33">
         <v>390</v>
       </c>
@@ -11630,7 +11071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" ht="13.5" spans="2:35">
+    <row r="150" spans="1:239" ht="13.5">
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
       <c r="D150" s="21"/>
@@ -11666,7 +11107,7 @@
       <c r="AH150" s="21"/>
       <c r="AI150" s="21"/>
     </row>
-    <row r="151" ht="13.5" spans="2:35">
+    <row r="151" spans="1:239" ht="13.5">
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
       <c r="D151" s="21"/>
@@ -11702,7 +11143,7 @@
       <c r="AH151" s="21"/>
       <c r="AI151" s="21"/>
     </row>
-    <row r="152" ht="13.5" spans="2:35">
+    <row r="152" spans="1:239" ht="13.5">
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
       <c r="D152" s="21"/>
@@ -11738,7 +11179,7 @@
       <c r="AH152" s="21"/>
       <c r="AI152" s="21"/>
     </row>
-    <row r="153" ht="13.5" spans="2:35">
+    <row r="153" spans="1:239" ht="13.5">
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
       <c r="D153" s="21"/>
@@ -11774,7 +11215,7 @@
       <c r="AH153" s="21"/>
       <c r="AI153" s="21"/>
     </row>
-    <row r="154" ht="13.5" spans="2:35">
+    <row r="154" spans="1:239" ht="13.5">
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
       <c r="D154" s="21"/>
@@ -11810,7 +11251,7 @@
       <c r="AH154" s="21"/>
       <c r="AI154" s="21"/>
     </row>
-    <row r="155" ht="13.5" spans="2:35">
+    <row r="155" spans="1:239" ht="13.5">
       <c r="B155" s="27"/>
       <c r="C155" s="21"/>
       <c r="D155" s="21"/>
@@ -11846,7 +11287,7 @@
       <c r="AH155" s="21"/>
       <c r="AI155" s="21"/>
     </row>
-    <row r="156" ht="14.25" spans="1:35">
+    <row r="156" spans="1:239" ht="14.25">
       <c r="A156" s="36" t="s">
         <v>57</v>
       </c>
@@ -11887,7 +11328,7 @@
       <c r="AH156" s="21"/>
       <c r="AI156" s="21"/>
     </row>
-    <row r="157" ht="13.5" spans="1:35">
+    <row r="157" spans="1:239" ht="13.5">
       <c r="A157" s="37"/>
       <c r="B157" s="35" t="s">
         <v>281</v>
@@ -11926,7 +11367,7 @@
       <c r="AH157" s="21"/>
       <c r="AI157" s="21"/>
     </row>
-    <row r="158" ht="13.5" spans="1:239">
+    <row r="158" spans="1:239" ht="13.5">
       <c r="A158" s="21"/>
       <c r="B158" s="31" t="s">
         <v>105</v>
@@ -12643,7 +12084,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="159" ht="13.5" spans="1:239">
+    <row r="159" spans="1:239" ht="13.5">
       <c r="A159" s="21"/>
       <c r="B159" s="33">
         <v>49</v>
@@ -13360,7 +12801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="160" ht="13.5" spans="1:239">
+    <row r="160" spans="1:239" ht="13.5">
       <c r="A160" s="21"/>
       <c r="B160" s="33">
         <v>50</v>
@@ -14077,7 +13518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" ht="13.5" spans="1:239">
+    <row r="161" spans="1:239" ht="13.5">
       <c r="A161" s="21"/>
       <c r="B161" s="33">
         <v>51</v>
@@ -14794,7 +14235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:239">
+    <row r="162" spans="1:239" ht="13.5">
       <c r="A162" s="21"/>
       <c r="B162" s="33">
         <v>52</v>
@@ -15511,7 +14952,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:239">
+    <row r="163" spans="1:239" ht="13.5">
       <c r="A163" s="21"/>
       <c r="B163" s="33">
         <v>53</v>
@@ -16228,7 +15669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:239">
+    <row r="164" spans="1:239" ht="13.5">
       <c r="A164" s="21"/>
       <c r="B164" s="33">
         <v>54</v>
@@ -16945,7 +16386,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="165" ht="13.5" spans="1:239">
+    <row r="165" spans="1:239" ht="13.5">
       <c r="A165" s="21"/>
       <c r="B165" s="33">
         <v>55</v>
@@ -17662,7 +17103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" ht="13.5" spans="1:239">
+    <row r="166" spans="1:239" ht="13.5">
       <c r="A166" s="21"/>
       <c r="B166" s="33">
         <v>56</v>
@@ -18379,7 +17820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:239">
+    <row r="167" spans="1:239" ht="13.5">
       <c r="A167" s="21"/>
       <c r="B167" s="33">
         <v>57</v>
@@ -19096,7 +18537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:239">
+    <row r="168" spans="1:239" ht="13.5">
       <c r="A168" s="21"/>
       <c r="B168" s="33">
         <v>58</v>
@@ -19813,7 +19254,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:239">
+    <row r="169" spans="1:239" ht="13.5">
       <c r="A169" s="21"/>
       <c r="B169" s="33">
         <v>59</v>
@@ -20530,7 +19971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="170" ht="13.5" spans="1:239">
+    <row r="170" spans="1:239" ht="13.5">
       <c r="A170" s="21"/>
       <c r="B170" s="33">
         <v>60</v>
@@ -21247,7 +20688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:239">
+    <row r="171" spans="1:239" ht="13.5">
       <c r="A171" s="21"/>
       <c r="B171" s="33">
         <v>61</v>
@@ -21964,7 +21405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="172" ht="13.5" spans="1:239">
+    <row r="172" spans="1:239" ht="13.5">
       <c r="A172" s="21"/>
       <c r="B172" s="33">
         <v>62</v>
@@ -22681,7 +22122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:239">
+    <row r="173" spans="1:239" ht="13.5">
       <c r="A173" s="21"/>
       <c r="B173" s="33">
         <v>63</v>
@@ -23398,7 +22839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:239">
+    <row r="174" spans="1:239" ht="13.5">
       <c r="A174" s="21"/>
       <c r="B174" s="33">
         <v>65</v>
@@ -24115,7 +23556,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:239">
+    <row r="175" spans="1:239" ht="13.5">
       <c r="A175" s="21"/>
       <c r="B175" s="33">
         <v>66</v>
@@ -24832,7 +24273,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:239">
+    <row r="176" spans="1:239" ht="13.5">
       <c r="A176" s="21"/>
       <c r="B176" s="33">
         <v>67</v>
@@ -25549,7 +24990,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:239">
+    <row r="177" spans="1:239" ht="13.5">
       <c r="A177" s="21"/>
       <c r="B177" s="33">
         <v>68</v>
@@ -26266,7 +25707,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" ht="13.5" spans="1:239">
+    <row r="178" spans="1:239" ht="13.5">
       <c r="A178" s="21"/>
       <c r="B178" s="33">
         <v>69</v>
@@ -26983,7 +26424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:239">
+    <row r="179" spans="1:239" ht="13.5">
       <c r="A179" s="21"/>
       <c r="B179" s="33">
         <v>70</v>
@@ -27700,7 +27141,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="180" ht="13.5" spans="1:239">
+    <row r="180" spans="1:239" ht="13.5">
       <c r="A180" s="21"/>
       <c r="B180" s="33">
         <v>71</v>
@@ -28417,7 +27858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" ht="13.5" spans="1:239">
+    <row r="181" spans="1:239" ht="13.5">
       <c r="A181" s="21"/>
       <c r="B181" s="33">
         <v>72</v>
@@ -29134,7 +28575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="182" ht="13.5" spans="1:239">
+    <row r="182" spans="1:239" ht="13.5">
       <c r="A182" s="21"/>
       <c r="B182" s="33">
         <v>73</v>
@@ -29851,7 +29292,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="183" ht="13.5" spans="1:239">
+    <row r="183" spans="1:239" ht="13.5">
       <c r="A183" s="21"/>
       <c r="B183" s="33">
         <v>74</v>
@@ -30568,7 +30009,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="184" ht="13.5" spans="1:239">
+    <row r="184" spans="1:239" ht="13.5">
       <c r="A184" s="21"/>
       <c r="B184" s="33">
         <v>75</v>
@@ -31285,7 +30726,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:239">
+    <row r="185" spans="1:239" ht="13.5">
       <c r="A185" s="21"/>
       <c r="B185" s="33">
         <v>76</v>
@@ -32002,7 +31443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="186" ht="13.5" spans="1:239">
+    <row r="186" spans="1:239" ht="13.5">
       <c r="A186" s="21"/>
       <c r="B186" s="33">
         <v>77</v>
@@ -32719,7 +32160,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" ht="13.5" spans="1:239">
+    <row r="187" spans="1:239" ht="13.5">
       <c r="A187" s="21"/>
       <c r="B187" s="33">
         <v>78</v>
@@ -33436,7 +32877,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="188" ht="13.5" spans="1:239">
+    <row r="188" spans="1:239" ht="13.5">
       <c r="A188" s="21"/>
       <c r="B188" s="33">
         <v>79</v>
@@ -34153,7 +33594,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="189" ht="13.5" spans="1:239">
+    <row r="189" spans="1:239" ht="13.5">
       <c r="A189" s="21"/>
       <c r="B189" s="33">
         <v>80</v>
@@ -34870,7 +34311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="2:104">
+    <row r="190" spans="1:239" ht="13.5">
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
       <c r="D190" s="21"/>
@@ -34907,7 +34348,7 @@
       <c r="AI190" s="21"/>
       <c r="CZ190" s="21"/>
     </row>
-    <row r="191" ht="13.5" spans="2:35">
+    <row r="191" spans="1:239" ht="13.5">
       <c r="B191" s="27"/>
       <c r="C191" s="21"/>
       <c r="D191" s="21"/>
@@ -34943,7 +34384,7 @@
       <c r="AH191" s="21"/>
       <c r="AI191" s="21"/>
     </row>
-    <row r="192" ht="13.5" spans="2:35">
+    <row r="192" spans="1:239" ht="13.5">
       <c r="B192" s="35"/>
       <c r="C192" s="21"/>
       <c r="D192" s="21"/>
@@ -34979,7 +34420,7 @@
       <c r="AH192" s="21"/>
       <c r="AI192" s="21"/>
     </row>
-    <row r="193" ht="13.5" spans="2:35">
+    <row r="193" spans="2:35" ht="13.5">
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
       <c r="D193" s="21"/>
@@ -35015,7 +34456,7 @@
       <c r="AH193" s="21"/>
       <c r="AI193" s="21"/>
     </row>
-    <row r="194" ht="13.5" spans="2:35">
+    <row r="194" spans="2:35" ht="13.5">
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
       <c r="D194" s="21"/>
@@ -35051,7 +34492,7 @@
       <c r="AH194" s="21"/>
       <c r="AI194" s="21"/>
     </row>
-    <row r="195" ht="13.5" spans="2:35">
+    <row r="195" spans="2:35" ht="13.5">
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
       <c r="D195" s="21"/>
@@ -35087,7 +34528,7 @@
       <c r="AH195" s="21"/>
       <c r="AI195" s="21"/>
     </row>
-    <row r="196" ht="13.5" spans="2:35">
+    <row r="196" spans="2:35" ht="13.5">
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
       <c r="D196" s="21"/>
@@ -35123,7 +34564,7 @@
       <c r="AH196" s="21"/>
       <c r="AI196" s="21"/>
     </row>
-    <row r="197" ht="13.5" spans="2:35">
+    <row r="197" spans="2:35" ht="13.5">
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
       <c r="D197" s="21"/>
@@ -35159,7 +34600,7 @@
       <c r="AH197" s="21"/>
       <c r="AI197" s="21"/>
     </row>
-    <row r="198" ht="13.5" spans="2:35">
+    <row r="198" spans="2:35" ht="13.5">
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
       <c r="D198" s="21"/>
@@ -35195,7 +34636,7 @@
       <c r="AH198" s="21"/>
       <c r="AI198" s="21"/>
     </row>
-    <row r="199" ht="13.5" spans="2:35">
+    <row r="199" spans="2:35" ht="13.5">
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
       <c r="D199" s="21"/>
@@ -35231,7 +34672,7 @@
       <c r="AH199" s="21"/>
       <c r="AI199" s="21"/>
     </row>
-    <row r="200" ht="13.5" spans="2:35">
+    <row r="200" spans="2:35" ht="13.5">
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
       <c r="D200" s="21"/>
@@ -35267,7 +34708,7 @@
       <c r="AH200" s="21"/>
       <c r="AI200" s="21"/>
     </row>
-    <row r="201" ht="13.5" spans="2:35">
+    <row r="201" spans="2:35" ht="13.5">
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
       <c r="D201" s="21"/>
@@ -35303,7 +34744,7 @@
       <c r="AH201" s="21"/>
       <c r="AI201" s="21"/>
     </row>
-    <row r="202" ht="13.5" spans="2:35">
+    <row r="202" spans="2:35" ht="13.5">
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
       <c r="D202" s="21"/>
@@ -35339,7 +34780,7 @@
       <c r="AH202" s="21"/>
       <c r="AI202" s="21"/>
     </row>
-    <row r="203" ht="13.5" spans="2:35">
+    <row r="203" spans="2:35" ht="13.5">
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
       <c r="D203" s="21"/>
@@ -35375,7 +34816,7 @@
       <c r="AH203" s="21"/>
       <c r="AI203" s="21"/>
     </row>
-    <row r="204" ht="13.5" spans="2:35">
+    <row r="204" spans="2:35" ht="13.5">
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
       <c r="D204" s="21"/>
@@ -35411,7 +34852,7 @@
       <c r="AH204" s="21"/>
       <c r="AI204" s="21"/>
     </row>
-    <row r="205" ht="13.5" spans="2:35">
+    <row r="205" spans="2:35" ht="13.5">
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
       <c r="D205" s="21"/>
@@ -35447,7 +34888,7 @@
       <c r="AH205" s="21"/>
       <c r="AI205" s="21"/>
     </row>
-    <row r="206" ht="13.5" spans="2:35">
+    <row r="206" spans="2:35" ht="13.5">
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
       <c r="D206" s="21"/>
@@ -35483,7 +34924,7 @@
       <c r="AH206" s="21"/>
       <c r="AI206" s="21"/>
     </row>
-    <row r="207" ht="13.5" spans="2:35">
+    <row r="207" spans="2:35" ht="13.5">
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
       <c r="D207" s="21"/>
@@ -35519,7 +34960,7 @@
       <c r="AH207" s="21"/>
       <c r="AI207" s="21"/>
     </row>
-    <row r="208" ht="13.5" spans="2:35">
+    <row r="208" spans="2:35" ht="13.5">
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
       <c r="D208" s="21"/>
@@ -35555,7 +34996,7 @@
       <c r="AH208" s="21"/>
       <c r="AI208" s="21"/>
     </row>
-    <row r="209" ht="13.5" spans="2:35">
+    <row r="209" spans="2:35" ht="13.5">
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
       <c r="D209" s="21"/>
@@ -35591,7 +35032,7 @@
       <c r="AH209" s="21"/>
       <c r="AI209" s="21"/>
     </row>
-    <row r="210" ht="13.5" spans="2:35">
+    <row r="210" spans="2:35" ht="13.5">
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
       <c r="D210" s="21"/>
@@ -35627,7 +35068,7 @@
       <c r="AH210" s="21"/>
       <c r="AI210" s="21"/>
     </row>
-    <row r="211" ht="13.5" spans="2:35">
+    <row r="211" spans="2:35" ht="13.5">
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
       <c r="D211" s="21"/>
@@ -35663,7 +35104,7 @@
       <c r="AH211" s="21"/>
       <c r="AI211" s="21"/>
     </row>
-    <row r="212" ht="13.5" spans="2:35">
+    <row r="212" spans="2:35" ht="13.5">
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
       <c r="D212" s="21"/>
@@ -35699,7 +35140,7 @@
       <c r="AH212" s="21"/>
       <c r="AI212" s="21"/>
     </row>
-    <row r="213" ht="13.5" spans="2:35">
+    <row r="213" spans="2:35" ht="13.5">
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
       <c r="D213" s="21"/>
@@ -35735,7 +35176,7 @@
       <c r="AH213" s="21"/>
       <c r="AI213" s="21"/>
     </row>
-    <row r="214" ht="13.5" spans="2:35">
+    <row r="214" spans="2:35" ht="13.5">
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
       <c r="D214" s="21"/>
@@ -35771,7 +35212,7 @@
       <c r="AH214" s="21"/>
       <c r="AI214" s="21"/>
     </row>
-    <row r="215" ht="13.5" spans="2:35">
+    <row r="215" spans="2:35" ht="13.5">
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
       <c r="D215" s="21"/>
@@ -35807,7 +35248,7 @@
       <c r="AH215" s="21"/>
       <c r="AI215" s="21"/>
     </row>
-    <row r="216" ht="13.5" spans="2:35">
+    <row r="216" spans="2:35" ht="13.5">
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
       <c r="D216" s="21"/>
@@ -35843,7 +35284,7 @@
       <c r="AH216" s="21"/>
       <c r="AI216" s="21"/>
     </row>
-    <row r="217" ht="13.5" spans="2:35">
+    <row r="217" spans="2:35" ht="13.5">
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
       <c r="D217" s="21"/>
@@ -35880,42 +35321,41 @@
       <c r="AI217" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="B158">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD87 $A96:$XFD157 A158 C158:XFD158 $A159:$XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="A1:XFD87 A96:XFD157 A158 C158:XFD158 A159:XFD1048576">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B88:BV95">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF88:XFD95">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="9" customWidth="1"/>
@@ -35925,7 +35365,7 @@
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:5" ht="12" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>974</v>
       </c>
@@ -35933,7 +35373,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:2">
+    <row r="4" spans="1:5" ht="12" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>976</v>
       </c>
@@ -35941,7 +35381,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>976</v>
       </c>
@@ -35949,7 +35389,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" customHeight="1" spans="1:4">
+    <row r="7" spans="1:5" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>976</v>
       </c>
@@ -35959,7 +35399,7 @@
       <c r="C7"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:5">
+    <row r="9" spans="1:5" customFormat="1" ht="14.25">
       <c r="A9" s="10" t="s">
         <v>976</v>
       </c>
@@ -35970,7 +35410,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:5">
+    <row r="10" spans="1:5" customFormat="1" ht="14.25">
       <c r="A10" s="10" t="s">
         <v>981</v>
       </c>
@@ -35981,7 +35421,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="10" t="s">
         <v>982</v>
       </c>
@@ -35989,13 +35429,13 @@
         <v>983</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="13.5" spans="1:4">
+    <row r="13" spans="1:5" customFormat="1" ht="13.5">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="15" ht="14.25" spans="1:2">
+    <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="10" t="s">
         <v>982</v>
       </c>
@@ -36003,7 +35443,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:4">
+    <row r="17" spans="1:4" customFormat="1" ht="14.25">
       <c r="A17" s="10" t="s">
         <v>981</v>
       </c>
@@ -36013,7 +35453,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    <row r="18" spans="1:4" customFormat="1" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>981</v>
       </c>
@@ -36024,15 +35464,14 @@
       <c r="D18" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -36048,7 +35487,7 @@
     <col min="18" max="18" width="10.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" spans="1:7">
+    <row r="1" spans="1:239" s="9" customFormat="1" ht="12">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -36057,7 +35496,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" customFormat="1" spans="1:7">
+    <row r="2" spans="1:239">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -36066,7 +35505,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" s="16" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="3" spans="1:239" s="16" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>57</v>
       </c>
@@ -36074,7 +35513,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" s="16" customFormat="1" spans="2:71">
+    <row r="4" spans="1:239" s="16" customFormat="1">
       <c r="B4" s="19" t="s">
         <v>104</v>
       </c>
@@ -36148,7 +35587,7 @@
       <c r="BR4" s="20"/>
       <c r="BS4" s="20"/>
     </row>
-    <row r="5" s="16" customFormat="1" spans="1:74">
+    <row r="5" spans="1:239" s="16" customFormat="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>62</v>
@@ -36370,7 +35809,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="1:239">
+    <row r="6" spans="1:239" s="16" customFormat="1">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>80</v>
@@ -36757,7 +36196,7 @@
       <c r="ID6" s="21"/>
       <c r="IE6" s="21"/>
     </row>
-    <row r="7" customFormat="1" spans="1:239">
+    <row r="7" spans="1:239">
       <c r="A7" s="21"/>
       <c r="B7" s="26" t="s">
         <v>92</v>
@@ -37144,7 +36583,7 @@
       <c r="ID7" s="21"/>
       <c r="IE7" s="21"/>
     </row>
-    <row r="8" customFormat="1" spans="1:239">
+    <row r="8" spans="1:239">
       <c r="A8" s="27"/>
       <c r="B8" s="26" t="s">
         <v>92</v>
@@ -37531,7 +36970,7 @@
       <c r="ID8" s="21"/>
       <c r="IE8" s="21"/>
     </row>
-    <row r="9" customFormat="1" spans="1:239">
+    <row r="9" spans="1:239">
       <c r="A9" s="27"/>
       <c r="B9" s="26" t="s">
         <v>80</v>
@@ -37918,7 +37357,7 @@
       <c r="ID9" s="21"/>
       <c r="IE9" s="21"/>
     </row>
-    <row r="10" customFormat="1" spans="1:239">
+    <row r="10" spans="1:239">
       <c r="A10" s="27"/>
       <c r="B10" s="26" t="s">
         <v>80</v>
@@ -38305,7 +37744,7 @@
       <c r="ID10" s="21"/>
       <c r="IE10" s="21"/>
     </row>
-    <row r="11" customFormat="1" spans="1:239">
+    <row r="11" spans="1:239">
       <c r="A11" s="27"/>
       <c r="B11" s="26" t="s">
         <v>92</v>
@@ -38692,7 +38131,7 @@
       <c r="ID11" s="21"/>
       <c r="IE11" s="21"/>
     </row>
-    <row r="12" customFormat="1" spans="1:239">
+    <row r="12" spans="1:239">
       <c r="A12" s="27"/>
       <c r="B12" s="26" t="s">
         <v>92</v>
@@ -39079,7 +38518,7 @@
       <c r="ID12" s="21"/>
       <c r="IE12" s="21"/>
     </row>
-    <row r="13" customFormat="1" spans="1:239">
+    <row r="13" spans="1:239">
       <c r="A13" s="27"/>
       <c r="B13" s="26" t="s">
         <v>80</v>
@@ -39466,7 +38905,7 @@
       <c r="ID13" s="21"/>
       <c r="IE13" s="21"/>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" spans="1:239">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -39475,7 +38914,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" customFormat="1" spans="1:7">
+    <row r="15" spans="1:239">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -39484,7 +38923,7 @@
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" customFormat="1" spans="1:7">
+    <row r="16" spans="1:239">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -39493,7 +38932,7 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" s="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:35" s="17" customFormat="1" ht="14.25">
       <c r="A17" s="28" t="s">
         <v>57</v>
       </c>
@@ -39501,7 +38940,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="18" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B18" s="29" t="s">
         <v>985</v>
       </c>
@@ -39557,7 +38996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="19" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B19" s="31" t="s">
         <v>61</v>
       </c>
@@ -39613,7 +39052,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="20" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B20" s="33" t="s">
         <v>79</v>
       </c>
@@ -39669,7 +39108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="21" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B21" s="33" t="s">
         <v>85</v>
       </c>
@@ -39725,7 +39164,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="22" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B22" s="33" t="s">
         <v>88</v>
       </c>
@@ -39781,7 +39220,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="23" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B23" s="33" t="s">
         <v>91</v>
       </c>
@@ -39837,7 +39276,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="24" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B24" s="33" t="s">
         <v>95</v>
       </c>
@@ -39893,7 +39332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="25" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B25" s="33" t="s">
         <v>98</v>
       </c>
@@ -39949,7 +39388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" ht="12" spans="2:19">
+    <row r="26" spans="1:35" s="17" customFormat="1" ht="12">
       <c r="B26" s="33" t="s">
         <v>100</v>
       </c>
@@ -40005,8 +39444,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" s="17" customFormat="1" ht="12"/>
-    <row r="29" s="9" customFormat="1" spans="2:35">
+    <row r="27" spans="1:35" s="17" customFormat="1" ht="12"/>
+    <row r="29" spans="1:35" s="9" customFormat="1">
       <c r="B29" s="35"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -40042,7 +39481,7 @@
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="30" spans="1:35" s="9" customFormat="1" ht="14.25">
       <c r="A30" s="28" t="s">
         <v>57</v>
       </c>
@@ -40083,7 +39522,7 @@
       <c r="AH30" s="21"/>
       <c r="AI30" s="21"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="2:35">
+    <row r="31" spans="1:35" s="9" customFormat="1">
       <c r="B31" s="29" t="s">
         <v>247</v>
       </c>
@@ -40121,7 +39560,7 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
     </row>
-    <row r="32" s="9" customFormat="1" spans="2:35">
+    <row r="32" spans="1:35" s="9" customFormat="1">
       <c r="B32" s="32" t="s">
         <v>62</v>
       </c>
@@ -40171,7 +39610,7 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="2:35">
+    <row r="33" spans="1:36" s="9" customFormat="1">
       <c r="B33" s="33" t="s">
         <v>80</v>
       </c>
@@ -40221,7 +39660,7 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="2:35">
+    <row r="34" spans="1:36" s="9" customFormat="1">
       <c r="B34" s="27"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -40257,7 +39696,7 @@
       <c r="AH34" s="21"/>
       <c r="AI34" s="21"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="2:35">
+    <row r="35" spans="1:36" s="9" customFormat="1">
       <c r="B35" s="35"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -40293,13 +39732,11 @@
       <c r="AH35" s="21"/>
       <c r="AI35" s="21"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:36">
       <c r="A36" s="9"/>
       <c r="B36" s="29"/>
     </row>
-    <row r="37" customFormat="1"/>
-    <row r="38" customFormat="1"/>
-    <row r="39" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:36" s="9" customFormat="1" ht="14.25">
       <c r="A39" s="36" t="s">
         <v>57</v>
       </c>
@@ -40307,13 +39744,13 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" ht="12" spans="1:2">
+    <row r="40" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="A40" s="37"/>
       <c r="B40" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" s="9" customFormat="1" ht="12" spans="2:36">
+    <row r="41" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B41" s="31" t="s">
         <v>61</v>
       </c>
@@ -40418,7 +39855,7 @@
       </c>
       <c r="AJ41" s="32"/>
     </row>
-    <row r="42" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="42" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B42" s="33">
         <v>1</v>
       </c>
@@ -40522,7 +39959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="43" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B43" s="33">
         <v>2</v>
       </c>
@@ -40626,7 +40063,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="44" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B44" s="33">
         <v>3</v>
       </c>
@@ -40730,7 +40167,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="45" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B45" s="33">
         <v>4</v>
       </c>
@@ -40834,7 +40271,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="46" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B46" s="33">
         <v>5</v>
       </c>
@@ -40938,7 +40375,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="47" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B47" s="33">
         <v>6</v>
       </c>
@@ -41042,7 +40479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="48" spans="1:36" s="9" customFormat="1" ht="12">
       <c r="B48" s="33">
         <v>7</v>
       </c>
@@ -41146,7 +40583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="49" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B49" s="33">
         <v>8</v>
       </c>
@@ -41250,7 +40687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="50" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B50" s="33">
         <v>9</v>
       </c>
@@ -41354,7 +40791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="51" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B51" s="33">
         <v>10</v>
       </c>
@@ -41458,7 +40895,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="52" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B52" s="33">
         <v>11</v>
       </c>
@@ -41562,7 +40999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="53" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B53" s="33">
         <v>12</v>
       </c>
@@ -41666,7 +41103,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="54" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B54" s="33">
         <v>13</v>
       </c>
@@ -41770,7 +41207,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="55" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B55" s="33">
         <v>14</v>
       </c>
@@ -41874,7 +41311,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="56" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B56" s="33">
         <v>15</v>
       </c>
@@ -41978,7 +41415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" s="9" customFormat="1" ht="12" spans="2:35">
+    <row r="57" spans="1:35" s="9" customFormat="1" ht="12">
       <c r="B57" s="33">
         <v>390</v>
       </c>
@@ -42082,7 +41519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" s="9" customFormat="1" spans="2:35">
+    <row r="61" spans="1:35" s="9" customFormat="1">
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -42118,7 +41555,7 @@
       <c r="AH61" s="21"/>
       <c r="AI61" s="21"/>
     </row>
-    <row r="62" s="9" customFormat="1" spans="2:35">
+    <row r="62" spans="1:35" s="9" customFormat="1">
       <c r="B62" s="27"/>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -42154,7 +41591,7 @@
       <c r="AH62" s="21"/>
       <c r="AI62" s="21"/>
     </row>
-    <row r="63" s="9" customFormat="1" ht="14.25" spans="1:35">
+    <row r="63" spans="1:35" s="9" customFormat="1" ht="14.25">
       <c r="A63" s="36" t="s">
         <v>57</v>
       </c>
@@ -42195,7 +41632,7 @@
       <c r="AH63" s="21"/>
       <c r="AI63" s="21"/>
     </row>
-    <row r="64" s="9" customFormat="1" spans="1:35">
+    <row r="64" spans="1:35" s="9" customFormat="1">
       <c r="A64" s="37"/>
       <c r="B64" s="35" t="s">
         <v>281</v>
@@ -42234,7 +41671,7 @@
       <c r="AH64" s="21"/>
       <c r="AI64" s="21"/>
     </row>
-    <row r="65" s="9" customFormat="1" spans="1:239">
+    <row r="65" spans="1:239" s="9" customFormat="1">
       <c r="A65" s="21"/>
       <c r="B65" s="31" t="s">
         <v>105</v>
@@ -42951,7 +42388,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" s="9" customFormat="1" spans="1:239">
+    <row r="66" spans="1:239" s="9" customFormat="1">
       <c r="A66" s="21"/>
       <c r="B66" s="33">
         <v>49</v>
@@ -43668,7 +43105,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" s="9" customFormat="1" spans="1:239">
+    <row r="67" spans="1:239" s="9" customFormat="1">
       <c r="A67" s="21"/>
       <c r="B67" s="33">
         <v>50</v>
@@ -44385,7 +43822,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" s="9" customFormat="1" spans="1:239">
+    <row r="68" spans="1:239" s="9" customFormat="1">
       <c r="A68" s="21"/>
       <c r="B68" s="33">
         <v>51</v>
@@ -45102,7 +44539,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" s="9" customFormat="1" spans="1:239">
+    <row r="69" spans="1:239" s="9" customFormat="1">
       <c r="A69" s="21"/>
       <c r="B69" s="33">
         <v>52</v>
@@ -45819,7 +45256,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" s="9" customFormat="1" spans="1:239">
+    <row r="70" spans="1:239" s="9" customFormat="1">
       <c r="A70" s="21"/>
       <c r="B70" s="33">
         <v>53</v>
@@ -46536,7 +45973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" s="9" customFormat="1" spans="1:239">
+    <row r="71" spans="1:239" s="9" customFormat="1">
       <c r="A71" s="21"/>
       <c r="B71" s="33">
         <v>54</v>
@@ -47253,7 +46690,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" s="9" customFormat="1" spans="1:239">
+    <row r="72" spans="1:239" s="9" customFormat="1">
       <c r="A72" s="21"/>
       <c r="B72" s="33">
         <v>55</v>
@@ -47970,7 +47407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" s="9" customFormat="1" spans="1:239">
+    <row r="73" spans="1:239" s="9" customFormat="1">
       <c r="A73" s="21"/>
       <c r="B73" s="33">
         <v>56</v>
@@ -48687,7 +48124,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" s="9" customFormat="1" spans="1:239">
+    <row r="74" spans="1:239" s="9" customFormat="1">
       <c r="A74" s="21"/>
       <c r="B74" s="33">
         <v>57</v>
@@ -49404,7 +48841,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" s="9" customFormat="1" spans="1:239">
+    <row r="75" spans="1:239" s="9" customFormat="1">
       <c r="A75" s="21"/>
       <c r="B75" s="33">
         <v>58</v>
@@ -50121,7 +49558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" s="9" customFormat="1" spans="1:239">
+    <row r="76" spans="1:239" s="9" customFormat="1">
       <c r="A76" s="21"/>
       <c r="B76" s="33">
         <v>59</v>
@@ -50838,7 +50275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" s="9" customFormat="1" spans="1:239">
+    <row r="77" spans="1:239" s="9" customFormat="1">
       <c r="A77" s="21"/>
       <c r="B77" s="33">
         <v>60</v>
@@ -51555,7 +50992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" s="9" customFormat="1" spans="1:239">
+    <row r="78" spans="1:239" s="9" customFormat="1">
       <c r="A78" s="21"/>
       <c r="B78" s="33">
         <v>61</v>
@@ -52272,7 +51709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" s="9" customFormat="1" spans="1:239">
+    <row r="79" spans="1:239" s="9" customFormat="1">
       <c r="A79" s="21"/>
       <c r="B79" s="33">
         <v>62</v>
@@ -52989,7 +52426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" s="9" customFormat="1" spans="1:239">
+    <row r="80" spans="1:239" s="9" customFormat="1">
       <c r="A80" s="21"/>
       <c r="B80" s="33">
         <v>63</v>
@@ -53706,7 +53143,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" s="9" customFormat="1" spans="1:239">
+    <row r="81" spans="1:239" s="9" customFormat="1">
       <c r="A81" s="21"/>
       <c r="B81" s="33">
         <v>65</v>
@@ -54423,7 +53860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" s="9" customFormat="1" spans="1:239">
+    <row r="82" spans="1:239" s="9" customFormat="1">
       <c r="A82" s="21"/>
       <c r="B82" s="33">
         <v>66</v>
@@ -55140,7 +54577,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="83" s="9" customFormat="1" spans="1:239">
+    <row r="83" spans="1:239" s="9" customFormat="1">
       <c r="A83" s="21"/>
       <c r="B83" s="33">
         <v>67</v>
@@ -55857,7 +55294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" s="9" customFormat="1" spans="1:239">
+    <row r="84" spans="1:239" s="9" customFormat="1">
       <c r="A84" s="21"/>
       <c r="B84" s="33">
         <v>68</v>
@@ -56574,7 +56011,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" s="9" customFormat="1" spans="1:239">
+    <row r="85" spans="1:239" s="9" customFormat="1">
       <c r="A85" s="21"/>
       <c r="B85" s="33">
         <v>69</v>
@@ -57291,7 +56728,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" s="9" customFormat="1" spans="1:239">
+    <row r="86" spans="1:239" s="9" customFormat="1">
       <c r="A86" s="21"/>
       <c r="B86" s="33">
         <v>70</v>
@@ -58008,7 +57445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" s="9" customFormat="1" spans="1:239">
+    <row r="87" spans="1:239" s="9" customFormat="1">
       <c r="A87" s="21"/>
       <c r="B87" s="33">
         <v>71</v>
@@ -58725,7 +58162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" s="9" customFormat="1" spans="1:239">
+    <row r="88" spans="1:239" s="9" customFormat="1">
       <c r="A88" s="21"/>
       <c r="B88" s="33">
         <v>72</v>
@@ -59442,7 +58879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="89" s="9" customFormat="1" spans="1:239">
+    <row r="89" spans="1:239" s="9" customFormat="1">
       <c r="A89" s="21"/>
       <c r="B89" s="33">
         <v>73</v>
@@ -60159,7 +59596,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="90" s="9" customFormat="1" spans="1:239">
+    <row r="90" spans="1:239" s="9" customFormat="1">
       <c r="A90" s="21"/>
       <c r="B90" s="33">
         <v>74</v>
@@ -60876,7 +60313,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="91" s="9" customFormat="1" spans="1:239">
+    <row r="91" spans="1:239" s="9" customFormat="1">
       <c r="A91" s="21"/>
       <c r="B91" s="33">
         <v>75</v>
@@ -61593,7 +61030,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="92" s="9" customFormat="1" spans="1:239">
+    <row r="92" spans="1:239" s="9" customFormat="1">
       <c r="A92" s="21"/>
       <c r="B92" s="33">
         <v>76</v>
@@ -62310,7 +61747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" s="9" customFormat="1" spans="1:239">
+    <row r="93" spans="1:239" s="9" customFormat="1">
       <c r="A93" s="21"/>
       <c r="B93" s="33">
         <v>77</v>
@@ -63027,7 +62464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="94" s="9" customFormat="1" spans="1:239">
+    <row r="94" spans="1:239" s="9" customFormat="1">
       <c r="A94" s="21"/>
       <c r="B94" s="33">
         <v>78</v>
@@ -63744,7 +63181,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="95" s="9" customFormat="1" spans="1:239">
+    <row r="95" spans="1:239" s="9" customFormat="1">
       <c r="A95" s="21"/>
       <c r="B95" s="33">
         <v>79</v>
@@ -64461,7 +63898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" s="9" customFormat="1" spans="1:239">
+    <row r="96" spans="1:239" s="9" customFormat="1">
       <c r="A96" s="21"/>
       <c r="B96" s="33">
         <v>80</v>
@@ -65178,7 +64615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="97" s="9" customFormat="1" spans="2:103">
+    <row r="97" spans="2:103" s="9" customFormat="1">
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
@@ -65215,7 +64652,7 @@
       <c r="AI97" s="21"/>
       <c r="CY97"/>
     </row>
-    <row r="98" s="9" customFormat="1" spans="2:35">
+    <row r="98" spans="2:103" s="9" customFormat="1">
       <c r="B98" s="27"/>
       <c r="C98" s="21"/>
       <c r="D98" s="21"/>
@@ -65251,7 +64688,7 @@
       <c r="AH98" s="21"/>
       <c r="AI98" s="21"/>
     </row>
-    <row r="99" s="9" customFormat="1" spans="2:103">
+    <row r="99" spans="2:103" s="9" customFormat="1">
       <c r="B99" s="35"/>
       <c r="C99" s="21"/>
       <c r="D99" s="21"/>
@@ -65289,43 +64726,42 @@
       <c r="CY99"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A57:$XFD57">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <phoneticPr fontId="22" type="noConversion"/>
+  <conditionalFormatting sqref="A57:XFD57">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A5:$XFD5 IF6:XFD13">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="A5:XFD5 IF6:XFD13">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:BV13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65 C65:XFD65 $A66:$XFD96">
+  <conditionalFormatting sqref="A65 C65:XFD65 A66:XFD96">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>974</v>
       </c>
@@ -65333,9 +64769,9 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12"/>
-    <row r="3" s="9" customFormat="1" ht="12"/>
-    <row r="4" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="12"/>
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12"/>
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>976</v>
       </c>
@@ -65343,7 +64779,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>976</v>
       </c>
@@ -65351,15 +64787,15 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12"/>
-    <row r="7" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12"/>
+    <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>986</v>
       </c>
@@ -65373,7 +64809,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>976</v>
       </c>
@@ -65383,7 +64819,7 @@
       <c r="C9"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>976</v>
       </c>
@@ -65393,7 +64829,7 @@
       <c r="C10"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="11" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>976</v>
       </c>
@@ -65403,10 +64839,10 @@
       <c r="C11"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="12" customHeight="1" spans="4:4">
+    <row r="12" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="D12" s="12"/>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>982</v>
       </c>
@@ -65415,27 +64851,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>974</v>
       </c>
@@ -65443,9 +64878,9 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="12"/>
-    <row r="3" s="9" customFormat="1" ht="12"/>
-    <row r="4" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="12"/>
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="12"/>
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>976</v>
       </c>
@@ -65453,7 +64888,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="14.25">
       <c r="A5" s="10" t="s">
         <v>976</v>
       </c>
@@ -65461,15 +64896,15 @@
         <v>978</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" ht="12"/>
-    <row r="7" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="12"/>
+    <row r="7" spans="1:5">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>986</v>
       </c>
@@ -65483,7 +64918,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>976</v>
       </c>
@@ -65493,7 +64928,7 @@
       <c r="C9"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="10" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>976</v>
       </c>
@@ -65503,7 +64938,7 @@
       <c r="C10"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="11" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>976</v>
       </c>
@@ -65513,7 +64948,7 @@
       <c r="C11"/>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:5" s="9" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>976</v>
       </c>
@@ -65522,7 +64957,7 @@
       </c>
       <c r="D12" s="12"/>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="10" t="s">
         <v>982</v>
       </c>
@@ -65530,11 +64965,11 @@
         <v>993</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="10"/>
       <c r="B16" s="13"/>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="10" t="s">
         <v>986</v>
       </c>
@@ -65545,7 +64980,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:2">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="10" t="s">
         <v>976</v>
       </c>
@@ -65553,7 +64988,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="10" t="s">
         <v>986</v>
       </c>
@@ -65564,7 +64999,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="10" t="s">
         <v>976</v>
       </c>
@@ -65572,7 +65007,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="10" t="s">
         <v>982</v>
       </c>
@@ -65580,7 +65015,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="10" t="s">
         <v>976</v>
       </c>
@@ -65588,12 +65023,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:1">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="10" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="10" t="s">
         <v>982</v>
       </c>
@@ -65601,7 +65036,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="10" t="s">
         <v>976</v>
       </c>
@@ -65609,7 +65044,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:2">
+    <row r="31" spans="1:3" ht="14.25">
       <c r="A31" s="10" t="s">
         <v>976</v>
       </c>
@@ -65617,7 +65052,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:2">
+    <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="10" t="s">
         <v>976</v>
       </c>
@@ -65625,7 +65060,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:3">
+    <row r="34" spans="1:3" ht="14.25">
       <c r="A34" s="10" t="s">
         <v>986</v>
       </c>
@@ -65636,7 +65071,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:3">
+    <row r="35" spans="1:3" ht="14.25">
       <c r="A35" s="10" t="s">
         <v>986</v>
       </c>
@@ -65647,7 +65082,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:3">
+    <row r="36" spans="1:3" ht="14.25">
       <c r="A36" s="10" t="s">
         <v>986</v>
       </c>
@@ -65658,7 +65093,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:3">
+    <row r="37" spans="1:3" ht="14.25">
       <c r="A37" s="10" t="s">
         <v>986</v>
       </c>
@@ -65669,7 +65104,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:3">
+    <row r="38" spans="1:3" ht="14.25">
       <c r="A38" s="10" t="s">
         <v>986</v>
       </c>
@@ -65680,7 +65115,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:3">
+    <row r="39" spans="1:3" ht="14.25">
       <c r="A39" s="10" t="s">
         <v>986</v>
       </c>
@@ -65691,7 +65126,7 @@
         <v>132456789</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:3">
+    <row r="40" spans="1:3" ht="14.25">
       <c r="A40" s="10" t="s">
         <v>986</v>
       </c>
@@ -65702,7 +65137,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:3">
+    <row r="41" spans="1:3" ht="14.25">
       <c r="A41" s="10" t="s">
         <v>986</v>
       </c>
@@ -65713,7 +65148,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:2">
+    <row r="43" spans="1:3" ht="14.25">
       <c r="A43" s="10" t="s">
         <v>982</v>
       </c>
@@ -65721,7 +65156,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:2">
+    <row r="44" spans="1:3" ht="14.25">
       <c r="A44" s="10" t="s">
         <v>976</v>
       </c>
@@ -65729,7 +65164,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:2">
+    <row r="46" spans="1:3" ht="14.25">
       <c r="A46" s="10" t="s">
         <v>974</v>
       </c>
@@ -65737,7 +65172,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:2">
+    <row r="47" spans="1:3" ht="14.25">
       <c r="A47" s="10" t="s">
         <v>982</v>
       </c>
@@ -65746,21 +65181,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
@@ -65795,7 +65229,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:8">
       <c r="B5" s="8" t="s">
         <v>1020</v>
       </c>
@@ -65812,12 +65246,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:8">
       <c r="B6" s="8" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:8">
       <c r="B7" s="8" t="s">
         <v>1026</v>
       </c>
@@ -65831,7 +65265,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:8">
       <c r="B8" s="8" t="s">
         <v>1029</v>
       </c>
@@ -65846,8 +65280,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>